--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COVER" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA_STRUCTURE" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATETIME" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR128" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR64" sheetId="7" state="visible" r:id="rId7"/>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E44" s="7" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="D50" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E50" s="7" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="D66" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E66" s="7" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E75" s="10" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E76" s="10" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E80" s="10" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="D85" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E89" s="10" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="D92" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E92" s="7" t="inlineStr">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="D93" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E93" s="7" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E99" s="10" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E100" s="10" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D110" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E110" s="7" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="D111" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="D112" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E112" s="7" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="D113" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E113" s="7" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="D119" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E119" s="10" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="D122" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E122" s="7" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="D123" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E123" s="7" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E130" s="10" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D131" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E131" s="10" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="D150" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E150" s="10" t="inlineStr">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="D151" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E151" s="10" t="inlineStr">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="D156" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E156" s="7" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="D157" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E157" s="7" t="inlineStr">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="D163" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E163" s="10" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="D164" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E164" s="10" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="D172" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E172" s="7" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="D173" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E173" s="7" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="D180" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E180" s="10" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="D181" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E181" s="10" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="D188" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E188" s="7" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="D189" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E189" s="7" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="D195" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E195" s="10" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="D196" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E196" s="10" t="inlineStr">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="D202" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E202" s="7" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="D203" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E203" s="7" t="inlineStr">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="D212" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E212" s="10" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="D213" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E213" s="10" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="D222" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E222" s="7" t="inlineStr">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="D228" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E228" s="10" t="inlineStr">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="D234" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E234" s="7" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="D242" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E242" s="10" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="D250" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E250" s="7" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="D259" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E259" s="10" t="inlineStr">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="D265" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E265" s="7" t="inlineStr">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="D272" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E272" s="10" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="D279" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E279" s="7" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="D284" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E284" s="10" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="D290" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E290" s="7" t="inlineStr">
@@ -14437,7 +14437,7 @@
       </c>
       <c r="D297" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E297" s="10" t="inlineStr">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="D305" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E305" s="7" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="D311" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E311" s="10" t="inlineStr">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="D318" s="6" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E318" s="7" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="D323" s="9" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>DATETIME</t>
         </is>
       </c>
       <c r="E323" s="10" t="inlineStr">
@@ -21571,7 +21571,7 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: date
+        type: datetime
         </t>
         </is>
       </c>

--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -12532,7 +12532,7 @@
     <row r="227" ht="36" customHeight="1">
       <c r="A227" s="8" t="inlineStr">
         <is>
-          <t>ASST.SFT</t>
+          <t>ACC.ASST_SFT</t>
         </is>
       </c>
       <c r="B227" s="8" t="inlineStr">
@@ -12559,7 +12559,7 @@
     <row r="228" ht="36" customHeight="1">
       <c r="A228" s="8" t="inlineStr">
         <is>
-          <t>ASST.SFT</t>
+          <t>ACC.ASST_SFT</t>
         </is>
       </c>
       <c r="B228" s="8" t="inlineStr">
@@ -12586,7 +12586,7 @@
     <row r="229" ht="36" customHeight="1">
       <c r="A229" s="8" t="inlineStr">
         <is>
-          <t>ASST.SFT</t>
+          <t>ACC.ASST_SFT</t>
         </is>
       </c>
       <c r="B229" s="8" t="inlineStr">
@@ -12613,7 +12613,7 @@
     <row r="230" ht="36" customHeight="1">
       <c r="A230" s="8" t="inlineStr">
         <is>
-          <t>ASST.SFT</t>
+          <t>ACC.ASST_SFT</t>
         </is>
       </c>
       <c r="B230" s="8" t="inlineStr">
@@ -12640,7 +12640,7 @@
     <row r="231" ht="36" customHeight="1">
       <c r="A231" s="8" t="inlineStr">
         <is>
-          <t>ASST.SFT</t>
+          <t>ACC.ASST_SFT</t>
         </is>
       </c>
       <c r="B231" s="8" t="inlineStr">
@@ -12667,7 +12667,7 @@
     <row r="232" ht="36" customHeight="1">
       <c r="A232" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B232" s="5" t="inlineStr">
@@ -12694,7 +12694,7 @@
     <row r="233" ht="36" customHeight="1">
       <c r="A233" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B233" s="5" t="inlineStr">
@@ -12721,7 +12721,7 @@
     <row r="234" ht="36" customHeight="1">
       <c r="A234" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B234" s="5" t="inlineStr">
@@ -12748,7 +12748,7 @@
     <row r="235" ht="36" customHeight="1">
       <c r="A235" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B235" s="5" t="inlineStr">
@@ -12775,7 +12775,7 @@
     <row r="236" ht="36" customHeight="1">
       <c r="A236" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B236" s="5" t="inlineStr">
@@ -12802,7 +12802,7 @@
     <row r="237" ht="36" customHeight="1">
       <c r="A237" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B237" s="5" t="inlineStr">
@@ -12829,7 +12829,7 @@
     <row r="238" ht="36" customHeight="1">
       <c r="A238" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B238" s="5" t="inlineStr">
@@ -12856,7 +12856,7 @@
     <row r="239" ht="36" customHeight="1">
       <c r="A239" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B239" s="5" t="inlineStr">
@@ -12883,7 +12883,7 @@
     <row r="240" ht="36" customHeight="1">
       <c r="A240" s="5" t="inlineStr">
         <is>
-          <t>ASST.DBT</t>
+          <t>ACC.ASST_DBT</t>
         </is>
       </c>
       <c r="B240" s="5" t="inlineStr">
@@ -12910,7 +12910,7 @@
     <row r="241" ht="36" customHeight="1">
       <c r="A241" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B241" s="8" t="inlineStr">
@@ -12937,7 +12937,7 @@
     <row r="242" ht="36" customHeight="1">
       <c r="A242" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B242" s="8" t="inlineStr">
@@ -12964,7 +12964,7 @@
     <row r="243" ht="36" customHeight="1">
       <c r="A243" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B243" s="8" t="inlineStr">
@@ -12991,7 +12991,7 @@
     <row r="244" ht="36" customHeight="1">
       <c r="A244" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B244" s="8" t="inlineStr">
@@ -13018,7 +13018,7 @@
     <row r="245" ht="36" customHeight="1">
       <c r="A245" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B245" s="8" t="inlineStr">
@@ -13045,7 +13045,7 @@
     <row r="246" ht="36" customHeight="1">
       <c r="A246" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B246" s="8" t="inlineStr">
@@ -13072,7 +13072,7 @@
     <row r="247" ht="36" customHeight="1">
       <c r="A247" s="8" t="inlineStr">
         <is>
-          <t>ASST.LN</t>
+          <t>ACC.ASST_LN</t>
         </is>
       </c>
       <c r="B247" s="8" t="inlineStr">
@@ -13099,7 +13099,7 @@
     <row r="248" ht="36" customHeight="1">
       <c r="A248" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B248" s="5" t="inlineStr">
@@ -13126,7 +13126,7 @@
     <row r="249" ht="36" customHeight="1">
       <c r="A249" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B249" s="5" t="inlineStr">
@@ -13153,7 +13153,7 @@
     <row r="250" ht="36" customHeight="1">
       <c r="A250" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B250" s="5" t="inlineStr">
@@ -13180,7 +13180,7 @@
     <row r="251" ht="36" customHeight="1">
       <c r="A251" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B251" s="5" t="inlineStr">
@@ -13207,7 +13207,7 @@
     <row r="252" ht="36" customHeight="1">
       <c r="A252" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B252" s="5" t="inlineStr">
@@ -13234,7 +13234,7 @@
     <row r="253" ht="36" customHeight="1">
       <c r="A253" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B253" s="5" t="inlineStr">
@@ -13261,7 +13261,7 @@
     <row r="254" ht="36" customHeight="1">
       <c r="A254" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B254" s="5" t="inlineStr">
@@ -13288,7 +13288,7 @@
     <row r="255" ht="36" customHeight="1">
       <c r="A255" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B255" s="5" t="inlineStr">
@@ -13315,7 +13315,7 @@
     <row r="256" ht="36" customHeight="1">
       <c r="A256" s="5" t="inlineStr">
         <is>
-          <t>SHR</t>
+          <t>ACC.SHR</t>
         </is>
       </c>
       <c r="B256" s="5" t="inlineStr">
@@ -13342,7 +13342,7 @@
     <row r="257" ht="36" customHeight="1">
       <c r="A257" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B257" s="8" t="inlineStr">
@@ -13369,7 +13369,7 @@
     <row r="258" ht="36" customHeight="1">
       <c r="A258" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B258" s="8" t="inlineStr">
@@ -13396,7 +13396,7 @@
     <row r="259" ht="36" customHeight="1">
       <c r="A259" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B259" s="8" t="inlineStr">
@@ -13423,7 +13423,7 @@
     <row r="260" ht="36" customHeight="1">
       <c r="A260" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B260" s="8" t="inlineStr">
@@ -13450,7 +13450,7 @@
     <row r="261" ht="36" customHeight="1">
       <c r="A261" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B261" s="8" t="inlineStr">
@@ -13477,7 +13477,7 @@
     <row r="262" ht="36" customHeight="1">
       <c r="A262" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B262" s="8" t="inlineStr">
@@ -13504,7 +13504,7 @@
     <row r="263" ht="36" customHeight="1">
       <c r="A263" s="8" t="inlineStr">
         <is>
-          <t>EDR</t>
+          <t>ACC.EDR</t>
         </is>
       </c>
       <c r="B263" s="8" t="inlineStr">
@@ -13531,7 +13531,7 @@
     <row r="264" ht="36" customHeight="1">
       <c r="A264" s="5" t="inlineStr">
         <is>
-          <t>ODR</t>
+          <t>ACC.ODR</t>
         </is>
       </c>
       <c r="B264" s="5" t="inlineStr">
@@ -13558,7 +13558,7 @@
     <row r="265" ht="36" customHeight="1">
       <c r="A265" s="5" t="inlineStr">
         <is>
-          <t>ODR</t>
+          <t>ACC.ODR</t>
         </is>
       </c>
       <c r="B265" s="5" t="inlineStr">
@@ -13585,7 +13585,7 @@
     <row r="266" ht="36" customHeight="1">
       <c r="A266" s="5" t="inlineStr">
         <is>
-          <t>ODR</t>
+          <t>ACC.ODR</t>
         </is>
       </c>
       <c r="B266" s="5" t="inlineStr">
@@ -13612,7 +13612,7 @@
     <row r="267" ht="36" customHeight="1">
       <c r="A267" s="5" t="inlineStr">
         <is>
-          <t>ODR</t>
+          <t>ACC.ODR</t>
         </is>
       </c>
       <c r="B267" s="5" t="inlineStr">
@@ -13639,7 +13639,7 @@
     <row r="268" ht="36" customHeight="1">
       <c r="A268" s="5" t="inlineStr">
         <is>
-          <t>ODR</t>
+          <t>ACC.ODR</t>
         </is>
       </c>
       <c r="B268" s="5" t="inlineStr">
@@ -13666,7 +13666,7 @@
     <row r="269" ht="36" customHeight="1">
       <c r="A269" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B269" s="8" t="inlineStr">
@@ -13693,7 +13693,7 @@
     <row r="270" ht="36" customHeight="1">
       <c r="A270" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B270" s="8" t="inlineStr">
@@ -13720,7 +13720,7 @@
     <row r="271" ht="36" customHeight="1">
       <c r="A271" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B271" s="8" t="inlineStr">
@@ -13747,7 +13747,7 @@
     <row r="272" ht="36" customHeight="1">
       <c r="A272" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B272" s="8" t="inlineStr">
@@ -13774,7 +13774,7 @@
     <row r="273" ht="36" customHeight="1">
       <c r="A273" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B273" s="8" t="inlineStr">
@@ -13801,7 +13801,7 @@
     <row r="274" ht="36" customHeight="1">
       <c r="A274" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B274" s="8" t="inlineStr">
@@ -13828,7 +13828,7 @@
     <row r="275" ht="36" customHeight="1">
       <c r="A275" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B275" s="8" t="inlineStr">
@@ -13855,7 +13855,7 @@
     <row r="276" ht="36" customHeight="1">
       <c r="A276" s="8" t="inlineStr">
         <is>
-          <t>ASST.NN_FNNCL</t>
+          <t>ACC.ASST_NN_FNNCL</t>
         </is>
       </c>
       <c r="B276" s="8" t="inlineStr">
@@ -13882,7 +13882,7 @@
     <row r="277" ht="36" customHeight="1">
       <c r="A277" s="5" t="inlineStr">
         <is>
-          <t>ASST.RMNNG</t>
+          <t>ACC.ASST_RMNNG</t>
         </is>
       </c>
       <c r="B277" s="5" t="inlineStr">
@@ -13909,7 +13909,7 @@
     <row r="278" ht="36" customHeight="1">
       <c r="A278" s="5" t="inlineStr">
         <is>
-          <t>ASST.RMNNG</t>
+          <t>ACC.ASST_RMNNG</t>
         </is>
       </c>
       <c r="B278" s="5" t="inlineStr">
@@ -13936,7 +13936,7 @@
     <row r="279" ht="36" customHeight="1">
       <c r="A279" s="5" t="inlineStr">
         <is>
-          <t>ASST.RMNNG</t>
+          <t>ACC.ASST_RMNNG</t>
         </is>
       </c>
       <c r="B279" s="5" t="inlineStr">
@@ -13963,7 +13963,7 @@
     <row r="280" ht="36" customHeight="1">
       <c r="A280" s="5" t="inlineStr">
         <is>
-          <t>ASST.RMNNG</t>
+          <t>ACC.ASST_RMNNG</t>
         </is>
       </c>
       <c r="B280" s="5" t="inlineStr">
@@ -13990,7 +13990,7 @@
     <row r="281" ht="36" customHeight="1">
       <c r="A281" s="5" t="inlineStr">
         <is>
-          <t>ASST.RMNNG</t>
+          <t>ACC.ASST_RMNNG</t>
         </is>
       </c>
       <c r="B281" s="5" t="inlineStr">
@@ -14017,7 +14017,7 @@
     <row r="282" ht="36" customHeight="1">
       <c r="A282" s="5" t="inlineStr">
         <is>
-          <t>ASST.RMNNG</t>
+          <t>ACC.ASST_RMNNG</t>
         </is>
       </c>
       <c r="B282" s="5" t="inlineStr">
@@ -14044,7 +14044,7 @@
     <row r="283" ht="36" customHeight="1">
       <c r="A283" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.SFT</t>
+          <t>ACC.LBLTY_SFT</t>
         </is>
       </c>
       <c r="B283" s="8" t="inlineStr">
@@ -14071,7 +14071,7 @@
     <row r="284" ht="36" customHeight="1">
       <c r="A284" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.SFT</t>
+          <t>ACC.LBLTY_SFT</t>
         </is>
       </c>
       <c r="B284" s="8" t="inlineStr">
@@ -14098,7 +14098,7 @@
     <row r="285" ht="36" customHeight="1">
       <c r="A285" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.SFT</t>
+          <t>ACC.LBLTY_SFT</t>
         </is>
       </c>
       <c r="B285" s="8" t="inlineStr">
@@ -14125,7 +14125,7 @@
     <row r="286" ht="36" customHeight="1">
       <c r="A286" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.SFT</t>
+          <t>ACC.LBLTY_SFT</t>
         </is>
       </c>
       <c r="B286" s="8" t="inlineStr">
@@ -14152,7 +14152,7 @@
     <row r="287" ht="36" customHeight="1">
       <c r="A287" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.SFT</t>
+          <t>ACC.LBLTY_SFT</t>
         </is>
       </c>
       <c r="B287" s="8" t="inlineStr">
@@ -14179,7 +14179,7 @@
     <row r="288" ht="36" customHeight="1">
       <c r="A288" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B288" s="5" t="inlineStr">
@@ -14206,7 +14206,7 @@
     <row r="289" ht="36" customHeight="1">
       <c r="A289" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B289" s="5" t="inlineStr">
@@ -14233,7 +14233,7 @@
     <row r="290" ht="36" customHeight="1">
       <c r="A290" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B290" s="5" t="inlineStr">
@@ -14260,7 +14260,7 @@
     <row r="291" ht="36" customHeight="1">
       <c r="A291" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B291" s="5" t="inlineStr">
@@ -14287,7 +14287,7 @@
     <row r="292" ht="36" customHeight="1">
       <c r="A292" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B292" s="5" t="inlineStr">
@@ -14314,7 +14314,7 @@
     <row r="293" ht="36" customHeight="1">
       <c r="A293" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B293" s="5" t="inlineStr">
@@ -14341,7 +14341,7 @@
     <row r="294" ht="36" customHeight="1">
       <c r="A294" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B294" s="5" t="inlineStr">
@@ -14368,7 +14368,7 @@
     <row r="295" ht="36" customHeight="1">
       <c r="A295" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.DBT</t>
+          <t>ACC.LBLTY_DBT</t>
         </is>
       </c>
       <c r="B295" s="5" t="inlineStr">
@@ -14395,7 +14395,7 @@
     <row r="296" ht="36" customHeight="1">
       <c r="A296" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B296" s="8" t="inlineStr">
@@ -14422,7 +14422,7 @@
     <row r="297" ht="36" customHeight="1">
       <c r="A297" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B297" s="8" t="inlineStr">
@@ -14449,7 +14449,7 @@
     <row r="298" ht="36" customHeight="1">
       <c r="A298" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B298" s="8" t="inlineStr">
@@ -14476,7 +14476,7 @@
     <row r="299" ht="36" customHeight="1">
       <c r="A299" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B299" s="8" t="inlineStr">
@@ -14503,7 +14503,7 @@
     <row r="300" ht="36" customHeight="1">
       <c r="A300" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B300" s="8" t="inlineStr">
@@ -14530,7 +14530,7 @@
     <row r="301" ht="36" customHeight="1">
       <c r="A301" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B301" s="8" t="inlineStr">
@@ -14557,7 +14557,7 @@
     <row r="302" ht="36" customHeight="1">
       <c r="A302" s="8" t="inlineStr">
         <is>
-          <t>LBLTY.LN</t>
+          <t>ACC.LBLTY_LN</t>
         </is>
       </c>
       <c r="B302" s="8" t="inlineStr">
@@ -14584,7 +14584,7 @@
     <row r="303" ht="36" customHeight="1">
       <c r="A303" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.RMNNG</t>
+          <t>ACC.LBLTY_RMNNG</t>
         </is>
       </c>
       <c r="B303" s="5" t="inlineStr">
@@ -14611,7 +14611,7 @@
     <row r="304" ht="36" customHeight="1">
       <c r="A304" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.RMNNG</t>
+          <t>ACC.LBLTY_RMNNG</t>
         </is>
       </c>
       <c r="B304" s="5" t="inlineStr">
@@ -14638,7 +14638,7 @@
     <row r="305" ht="36" customHeight="1">
       <c r="A305" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.RMNNG</t>
+          <t>ACC.LBLTY_RMNNG</t>
         </is>
       </c>
       <c r="B305" s="5" t="inlineStr">
@@ -14665,7 +14665,7 @@
     <row r="306" ht="36" customHeight="1">
       <c r="A306" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.RMNNG</t>
+          <t>ACC.LBLTY_RMNNG</t>
         </is>
       </c>
       <c r="B306" s="5" t="inlineStr">
@@ -14692,7 +14692,7 @@
     <row r="307" ht="36" customHeight="1">
       <c r="A307" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.RMNNG</t>
+          <t>ACC.LBLTY_RMNNG</t>
         </is>
       </c>
       <c r="B307" s="5" t="inlineStr">
@@ -14719,7 +14719,7 @@
     <row r="308" ht="36" customHeight="1">
       <c r="A308" s="5" t="inlineStr">
         <is>
-          <t>LBLTY.RMNNG</t>
+          <t>ACC.LBLTY_RMNNG</t>
         </is>
       </c>
       <c r="B308" s="5" t="inlineStr">
@@ -14746,7 +14746,7 @@
     <row r="309" ht="36" customHeight="1">
       <c r="A309" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B309" s="8" t="inlineStr">
@@ -14773,7 +14773,7 @@
     <row r="310" ht="36" customHeight="1">
       <c r="A310" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B310" s="8" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="311" ht="36" customHeight="1">
       <c r="A311" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B311" s="8" t="inlineStr">
@@ -14827,7 +14827,7 @@
     <row r="312" ht="36" customHeight="1">
       <c r="A312" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B312" s="8" t="inlineStr">
@@ -14854,7 +14854,7 @@
     <row r="313" ht="36" customHeight="1">
       <c r="A313" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B313" s="8" t="inlineStr">
@@ -14881,7 +14881,7 @@
     <row r="314" ht="36" customHeight="1">
       <c r="A314" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B314" s="8" t="inlineStr">
@@ -14908,7 +14908,7 @@
     <row r="315" ht="36" customHeight="1">
       <c r="A315" s="8" t="inlineStr">
         <is>
-          <t>HLDR</t>
+          <t>ACC.HLDR</t>
         </is>
       </c>
       <c r="B315" s="8" t="inlineStr">
@@ -14935,7 +14935,7 @@
     <row r="316" ht="36" customHeight="1">
       <c r="A316" s="5" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>ACC.RVN</t>
         </is>
       </c>
       <c r="B316" s="5" t="inlineStr">
@@ -14962,7 +14962,7 @@
     <row r="317" ht="36" customHeight="1">
       <c r="A317" s="5" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>ACC.RVN</t>
         </is>
       </c>
       <c r="B317" s="5" t="inlineStr">
@@ -14989,7 +14989,7 @@
     <row r="318" ht="36" customHeight="1">
       <c r="A318" s="5" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>ACC.RVN</t>
         </is>
       </c>
       <c r="B318" s="5" t="inlineStr">
@@ -15016,7 +15016,7 @@
     <row r="319" ht="36" customHeight="1">
       <c r="A319" s="5" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>ACC.RVN</t>
         </is>
       </c>
       <c r="B319" s="5" t="inlineStr">
@@ -15043,7 +15043,7 @@
     <row r="320" ht="36" customHeight="1">
       <c r="A320" s="5" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>ACC.RVN</t>
         </is>
       </c>
       <c r="B320" s="5" t="inlineStr">
@@ -15070,7 +15070,7 @@
     <row r="321" ht="36" customHeight="1">
       <c r="A321" s="8" t="inlineStr">
         <is>
-          <t>EXPNS</t>
+          <t>ACC.EXPNS</t>
         </is>
       </c>
       <c r="B321" s="8" t="inlineStr">
@@ -15097,7 +15097,7 @@
     <row r="322" ht="36" customHeight="1">
       <c r="A322" s="8" t="inlineStr">
         <is>
-          <t>EXPNS</t>
+          <t>ACC.EXPNS</t>
         </is>
       </c>
       <c r="B322" s="8" t="inlineStr">
@@ -15124,7 +15124,7 @@
     <row r="323" ht="36" customHeight="1">
       <c r="A323" s="8" t="inlineStr">
         <is>
-          <t>EXPNS</t>
+          <t>ACC.EXPNS</t>
         </is>
       </c>
       <c r="B323" s="8" t="inlineStr">
@@ -15151,7 +15151,7 @@
     <row r="324" ht="36" customHeight="1">
       <c r="A324" s="8" t="inlineStr">
         <is>
-          <t>EXPNS</t>
+          <t>ACC.EXPNS</t>
         </is>
       </c>
       <c r="B324" s="8" t="inlineStr">
@@ -15178,7 +15178,7 @@
     <row r="325" ht="36" customHeight="1">
       <c r="A325" s="8" t="inlineStr">
         <is>
-          <t>EXPNS</t>
+          <t>ACC.EXPNS</t>
         </is>
       </c>
       <c r="B325" s="8" t="inlineStr">

--- a/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
+++ b/docs/source/_static/structure/IFDAT_DATAMODEL.xlsx
@@ -16,115 +16,114 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LON" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DER" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIL20" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU31" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR128" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU128" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR64" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU64" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR32" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU32" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR16" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URL256" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMAILSTR" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIII50" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ID" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR256" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU255" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NON-NEGATIVE-INT" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIF6" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU12" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INT" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR512" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST_NN_FNNCL_ENUM" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL_ENUM" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL_EXT_ENUM" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_FRQNCY_ENUM" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_TYP_ENUM" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CVRD_TYP_ENUM" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_GRNT_LVL_ENUM" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_OUTSTNDNG_CHN_TYP_ENUM" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_RNK_LVL_ENUM" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_SCRTY_LVL_ENUM" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_STTS_ENUM" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_TYP_ENUM" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_NTC_ENUM" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_TYP_ENUM" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRVTV_TYP_ENUM" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_CSTM_FRQNCY_ENUM" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_TYP_ENUM" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ESA_SECTOR_ENUM" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_BND_FCS_ENUM" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_DSTRBTN_PLCY_ENUM" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_EQTY_TYP_ENUM" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GGRPHCL_FCS_ENUM" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GRN_TYP_ENUM" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTMNT_PLCY_ENUM" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTR_TYP_ENUM" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_LGL_TYP_ENUM" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_RL_ESTT_TYP_ENUM" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_STRTGY_ENUM" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CNTRY_ENUM" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CRRNCY_ENUM" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_MRKT_ENUM" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IFDAT_DRGTN_TYP_ENUM" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LON_TYP_ENUM" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_CNTRL_ENUM" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTHER_RDMPTN_FRQNCY_ENUM" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_ASSET_ENUM" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_LIAB_ENUM" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_ESA_TYP_ENUM" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_TYP_ENUM" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOURCE_TYPE_ENUM" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DER" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIL20" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU31" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR128" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU128" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR64" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU64" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR32" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU32" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR16" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="URL256" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMAILSTR" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIII50" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ID" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR256" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU255" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NON-NEGATIVE-INT" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIF6" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASCIIU12" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INT" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STR512" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASST_NN_FNNCL_ENUM" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL_ENUM" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOL_EXT_ENUM" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_FRQNCY_ENUM" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CPN_TYP_ENUM" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_CVRD_TYP_ENUM" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_GRNT_LVL_ENUM" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_OUTSTNDNG_CHN_TYP_ENUM" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_RNK_LVL_ENUM" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_SCRTY_LVL_ENUM" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_STTS_ENUM" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBT_TYP_ENUM" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_NTC_ENUM" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEP_TYP_ENUM" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DRVTV_TYP_ENUM" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_CSTM_FRQNCY_ENUM" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DVDND_TYP_ENUM" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ESA_SECTOR_ENUM" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_BND_FCS_ENUM" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_DSTRBTN_PLCY_ENUM" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_EQTY_TYP_ENUM" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GGRPHCL_FCS_ENUM" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_GRN_TYP_ENUM" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTMNT_PLCY_ENUM" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_INVSTR_TYP_ENUM" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_LGL_TYP_ENUM" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_RL_ESTT_TYP_ENUM" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FND_STRTGY_ENUM" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CNTRY_ENUM" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_CRRNCY_ENUM" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_MRKT_ENUM" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IFDAT_DRGTN_TYP_ENUM" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LON_TYP_ENUM" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORG_INSTTTNL_SCTR_CNTRL_ENUM" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTHER_RDMPTN_FRQNCY_ENUM" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_ASSET_ENUM" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REM_LIAB_ENUM" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_ESA_TYP_ENUM" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SHR_TYP_ENUM" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOURCE_TYPE_ENUM" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DATA_STRUCTURE'!$A$1:$F$281</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'ASST_NN_FNNCL_ENUM'!$A$1:$C$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">'BOOL_ENUM'!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">'BOOL_EXT_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">'DBT_CPN_FRQNCY_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">'DBT_CPN_TYP_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">'DBT_CVRD_TYP_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">'DBT_GRNT_LVL_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">'DBT_OUTSTNDNG_CHN_TYP_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">'DBT_RNK_LVL_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">'DBT_SCRTY_LVL_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">'DBT_STTS_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">'DBT_TYP_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">'DEP_NTC_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">'DEP_TYP_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">'DRVTV_TYP_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'DVDND_CSTM_FRQNCY_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="49" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="50" hidden="1">'ESA_SECTOR_ENUM'!$A$1:$C$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="51" hidden="1">'FND_BND_FCS_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="52" hidden="1">'FND_DSTRBTN_PLCY_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="53" hidden="1">'FND_EQTY_TYP_ENUM'!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="54" hidden="1">'FND_GGRPHCL_FCS_ENUM'!$A$1:$C$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="55" hidden="1">'FND_GRN_TYP_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="56" hidden="1">'FND_INVSTMNT_PLCY_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="57" hidden="1">'FND_INVSTR_TYP_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="58" hidden="1">'FND_LGL_TYP_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">'FND_RL_ESTT_TYP_ENUM'!$A$1:$C$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">'FND_STRTGY_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">'GEN_CNTRY_ENUM'!$A$1:$C$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="64" hidden="1">'GEN_MRKT_ENUM'!$A$1:$C$2555</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">'IFDAT_DRGTN_TYP_ENUM'!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">'LON_TYP_ENUM'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="67" hidden="1">'ORG_INSTTTNL_SCTR_CNTRL_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="68" hidden="1">'OTHER_RDMPTN_FRQNCY_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="69" hidden="1">'REM_ASSET_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">'REM_LIAB_ENUM'!$A$1:$C$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">'SHR_ESA_TYP_ENUM'!$A$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="72" hidden="1">'SHR_TYP_ENUM'!$A$1:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="73" hidden="1">'SOURCE_TYPE_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'ASST_NN_FNNCL_ENUM'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'BOOL_ENUM'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">'BOOL_EXT_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">'DBT_CPN_FRQNCY_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="36" hidden="1">'DBT_CPN_TYP_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">'DBT_CVRD_TYP_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">'DBT_GRNT_LVL_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">'DBT_OUTSTNDNG_CHN_TYP_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="40" hidden="1">'DBT_RNK_LVL_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="41" hidden="1">'DBT_SCRTY_LVL_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">'DBT_STTS_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">'DBT_TYP_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">'DEP_NTC_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="45" hidden="1">'DEP_TYP_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="46" hidden="1">'DRVTV_TYP_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="47" hidden="1">'DVDND_CSTM_FRQNCY_ENUM'!$A$1:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="48" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="49" hidden="1">'ESA_SECTOR_ENUM'!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="50" hidden="1">'FND_BND_FCS_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="51" hidden="1">'FND_DSTRBTN_PLCY_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="52" hidden="1">'FND_EQTY_TYP_ENUM'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="53" hidden="1">'FND_GGRPHCL_FCS_ENUM'!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="54" hidden="1">'FND_GRN_TYP_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="55" hidden="1">'FND_INVSTMNT_PLCY_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="56" hidden="1">'FND_INVSTR_TYP_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="57" hidden="1">'FND_LGL_TYP_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="58" hidden="1">'FND_RL_ESTT_TYP_ENUM'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">'FND_STRTGY_ENUM'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">'GEN_CNTRY_ENUM'!$A$1:$C$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="61" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">'GEN_MRKT_ENUM'!$A$1:$C$2555</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="64" hidden="1">'IFDAT_DRGTN_TYP_ENUM'!$A$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">'LON_TYP_ENUM'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="66" hidden="1">'ORG_INSTTTNL_SCTR_CNTRL_ENUM'!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="67" hidden="1">'OTHER_RDMPTN_FRQNCY_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="68" hidden="1">'REM_ASSET_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="69" hidden="1">'REM_LIAB_ENUM'!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">'SHR_ESA_TYP_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="71" hidden="1">'SHR_TYP_ENUM'!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="72" hidden="1">'SOURCE_TYPE_ENUM'!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1277,8 +1276,16 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: bool
-        </t>
+    Identification code of a debt security.
+    type = string
+    pattern = "^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|([PU][A-Za-z0-9_@$\-][!-~]*)")
+    max_length = 51
+    The first available from the list below that
+    satisfies the constraints above is to be used to identify an equity:
+    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
+    * Private Identifier Code (PRIVATE_ID) constructed as
+      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
+    </t>
         </is>
       </c>
       <c r="B2" s="14" t="n"/>
@@ -1819,15 +1826,16 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Identification code of a debt security.
+    Identification code of a financial derivative.
     type = string
-    pattern = "^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|([PU][A-Za-z0-9_@$\-][!-~]*)")
+    pattern = r"^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|(M[A-Z]{4}_[!-~]+)|(PE[A-Za-z0-9@$-]+_[!-~]+)$"),
     max_length = 51
-    The first available from the list below that
-    satisfies the constraints above is to be used to identify an equity:
+    The first available from the list below that satisfies the constraints
+    above is to be used to identify a financial derivative:
     * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
+    * A market ticker identifier constructed as M{MARKET}_{TICKER}.  For example MXADE_FTSE25A
     * Private Identifier Code (PRIVATE_ID) constructed as
-      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
+      "PE{OA_ID}_{PRIVATE_ID}`` where OA_ID is the ESCB_ID of the OA.
     </t>
         </is>
       </c>
@@ -2369,17 +2377,8 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Identification code of a financial derivative.
-    type = string
-    pattern = r"^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|(M[A-Z]{4}_[!-~]+)|(PE[A-Za-z0-9@$-]+_[!-~]+)$"),
-    max_length = 51
-    The first available from the list below that satisfies the constraints
-    above is to be used to identify a financial derivative:
-    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
-    * A market ticker identifier constructed as M{MARKET}_{TICKER}.  For example MXADE_FTSE25A
-    * Private Identifier Code (PRIVATE_ID) constructed as
-      "PE{OA_ID}_{PRIVATE_ID}`` where OA_ID is the ESCB_ID of the OA.
-    </t>
+        type: ORG_
+        </t>
         </is>
       </c>
       <c r="B2" s="14" t="n"/>
@@ -2920,7 +2919,9 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: ORG_
+        type: string
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: L20
         </t>
         </is>
       </c>
@@ -3464,7 +3465,7 @@
           <t xml:space="preserve">
         type: string
         pattern: "^[a-zA-Z0-9_]+"
-        max_length: L20
+        max_length: U31
         </t>
         </is>
       </c>
@@ -4007,8 +4008,7 @@
         <is>
           <t xml:space="preserve">
         type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U31
+        max_length: 128
         </t>
         </is>
       </c>
@@ -4551,7 +4551,8 @@
         <is>
           <t xml:space="preserve">
         type: string
-        max_length: 128
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: U128
         </t>
         </is>
       </c>
@@ -5094,8 +5095,7 @@
         <is>
           <t xml:space="preserve">
         type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U128
+        max_length: 64
         </t>
         </is>
       </c>
@@ -5638,7 +5638,8 @@
         <is>
           <t xml:space="preserve">
         type: string
-        max_length: 64
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: U64
         </t>
         </is>
       </c>
@@ -6181,8 +6182,7 @@
         <is>
           <t xml:space="preserve">
         type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U64
+        max_length: 32
         </t>
         </is>
       </c>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>BOOL</t>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F23" s="6" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>BOOL</t>
+          <t>BOOL_ENUM</t>
         </is>
       </c>
       <c r="F67" s="6" t="inlineStr">
@@ -9274,7 +9274,7 @@
     <row r="81" ht="36" customHeight="1">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>ACC.SHR_KEY</t>
+          <t>ACC.KEY</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
@@ -9306,7 +9306,7 @@
     <row r="82" ht="36" customHeight="1">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>ACC.SHR_KEY</t>
+          <t>ACC.KEY</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
@@ -9338,7 +9338,7 @@
     <row r="83" ht="36" customHeight="1">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>ACC.SHR_KEY</t>
+          <t>ACC.KEY</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
@@ -9370,7 +9370,7 @@
     <row r="84" ht="36" customHeight="1">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>ACC.SHR_KEY</t>
+          <t>ACC.KEY</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
@@ -9402,7 +9402,7 @@
     <row r="85" ht="36" customHeight="1">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>ACC.SHR_KEY</t>
+          <t>ACC.KEY</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
@@ -9434,7 +9434,7 @@
     <row r="86" ht="36" customHeight="1">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>ACC.FND_KEY</t>
+          <t>ACC.FEE</t>
         </is>
       </c>
       <c r="B86" s="5" t="inlineStr">
@@ -9466,7 +9466,7 @@
     <row r="87" ht="36" customHeight="1">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>ACC.FND_KEY</t>
+          <t>ACC.FEE</t>
         </is>
       </c>
       <c r="B87" s="5" t="inlineStr">
@@ -9498,7 +9498,7 @@
     <row r="88" ht="36" customHeight="1">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>ACC.FND_KEY</t>
+          <t>ACC.FEE</t>
         </is>
       </c>
       <c r="B88" s="5" t="inlineStr">
@@ -9530,7 +9530,7 @@
     <row r="89" ht="36" customHeight="1">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>ACC.FND_KEY</t>
+          <t>ACC.FEE</t>
         </is>
       </c>
       <c r="B89" s="5" t="inlineStr">
@@ -9818,7 +9818,7 @@
     <row r="98" ht="36" customHeight="1">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B98" s="5" t="inlineStr">
@@ -9850,7 +9850,7 @@
     <row r="99" ht="36" customHeight="1">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B99" s="5" t="inlineStr">
@@ -9882,7 +9882,7 @@
     <row r="100" ht="36" customHeight="1">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B100" s="5" t="inlineStr">
@@ -9914,7 +9914,7 @@
     <row r="101" ht="36" customHeight="1">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B101" s="5" t="inlineStr">
@@ -9946,7 +9946,7 @@
     <row r="102" ht="36" customHeight="1">
       <c r="A102" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B102" s="5" t="inlineStr">
@@ -9978,7 +9978,7 @@
     <row r="103" ht="36" customHeight="1">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B103" s="5" t="inlineStr">
@@ -10010,7 +10010,7 @@
     <row r="104" ht="36" customHeight="1">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B104" s="5" t="inlineStr">
@@ -10042,7 +10042,7 @@
     <row r="105" ht="36" customHeight="1">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>REF.MNGMNT</t>
+          <t>REF.RA</t>
         </is>
       </c>
       <c r="B105" s="5" t="inlineStr">
@@ -10074,7 +10074,7 @@
     <row r="106" ht="36" customHeight="1">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
@@ -10106,7 +10106,7 @@
     <row r="107" ht="36" customHeight="1">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
@@ -10138,7 +10138,7 @@
     <row r="108" ht="36" customHeight="1">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
@@ -10170,7 +10170,7 @@
     <row r="109" ht="36" customHeight="1">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
@@ -10202,7 +10202,7 @@
     <row r="110" ht="36" customHeight="1">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
@@ -10234,7 +10234,7 @@
     <row r="111" ht="36" customHeight="1">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
@@ -10266,7 +10266,7 @@
     <row r="112" ht="36" customHeight="1">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
@@ -10298,7 +10298,7 @@
     <row r="113" ht="36" customHeight="1">
       <c r="A113" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B113" s="9" t="inlineStr">
@@ -10330,7 +10330,7 @@
     <row r="114" ht="36" customHeight="1">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
@@ -10362,7 +10362,7 @@
     <row r="115" ht="36" customHeight="1">
       <c r="A115" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B115" s="9" t="inlineStr">
@@ -10394,7 +10394,7 @@
     <row r="116" ht="36" customHeight="1">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
@@ -10426,7 +10426,7 @@
     <row r="117" ht="36" customHeight="1">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B117" s="9" t="inlineStr">
@@ -10458,7 +10458,7 @@
     <row r="118" ht="36" customHeight="1">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
@@ -10490,7 +10490,7 @@
     <row r="119" ht="36" customHeight="1">
       <c r="A119" s="9" t="inlineStr">
         <is>
-          <t>REF.MNGMNT_DYNMC</t>
+          <t>REF.RA_DYNMC</t>
         </is>
       </c>
       <c r="B119" s="9" t="inlineStr">
@@ -15997,7 +15997,8 @@
         <is>
           <t xml:space="preserve">
         type: string
-        max_length: 32
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: U32
         </t>
         </is>
       </c>
@@ -16540,8 +16541,7 @@
         <is>
           <t xml:space="preserve">
         type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U32
+        max_length: 16
         </t>
         </is>
       </c>
@@ -17083,8 +17083,7 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: string
-        max_length: 16
+        type: URL256
         </t>
         </is>
       </c>
@@ -17626,7 +17625,7 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: URL256
+        type: email address
         </t>
         </is>
       </c>
@@ -18168,7 +18167,9 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: email address
+        type: string
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: I50
         </t>
         </is>
       </c>
@@ -18707,15 +18708,7 @@
       <c r="O1" s="13" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: I50
-        </t>
-        </is>
-      </c>
+      <c r="A2" s="14" t="inlineStr"/>
       <c r="B2" s="14" t="n"/>
       <c r="C2" s="14" t="n"/>
       <c r="D2" s="14" t="n"/>
@@ -19251,7 +19244,14 @@
       <c r="O1" s="13" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: string
+        max_length: 256
+        </t>
+        </is>
+      </c>
       <c r="B2" s="14" t="n"/>
       <c r="C2" s="14" t="n"/>
       <c r="D2" s="14" t="n"/>
@@ -19791,7 +19791,8 @@
         <is>
           <t xml:space="preserve">
         type: string
-        max_length: 256
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: U255
         </t>
         </is>
       </c>
@@ -20333,9 +20334,7 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U255
+        type: Non-Negative-Int
         </t>
         </is>
       </c>
@@ -20877,7 +20876,9 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: Non-Negative-Int
+        type: string
+        pattern: "^[a-zA-Z0-9_]+"
+        max_length: F6
         </t>
         </is>
       </c>
@@ -21973,7 +21974,7 @@
           <t xml:space="preserve">
         type: string
         pattern: "^[a-zA-Z0-9_]+"
-        max_length: F6
+        max_length: U12
         </t>
         </is>
       </c>
@@ -22515,9 +22516,7 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: string
-        pattern: "^[a-zA-Z0-9_]+"
-        max_length: U12
+        type: int
         </t>
         </is>
       </c>
@@ -23059,7 +23058,8 @@
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-        type: int
+        type: string
+        max_length: 512
         </t>
         </is>
       </c>
@@ -23564,549 +23564,6 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="13">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="13" t="n"/>
-      <c r="L1" s="13" t="n"/>
-      <c r="M1" s="13" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="13" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: string
-        max_length: 512
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="14" t="n"/>
-      <c r="D2" s="14" t="n"/>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="14" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="14" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="14" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="14" t="n"/>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="14" t="n"/>
-      <c r="K3" s="14" t="n"/>
-      <c r="L3" s="14" t="n"/>
-      <c r="M3" s="14" t="n"/>
-      <c r="N3" s="14" t="n"/>
-      <c r="O3" s="14" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
-      <c r="N4" s="14" t="n"/>
-      <c r="O4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n"/>
-      <c r="L5" s="14" t="n"/>
-      <c r="M5" s="14" t="n"/>
-      <c r="N5" s="14" t="n"/>
-      <c r="O5" s="14" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="n"/>
-      <c r="K7" s="14" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="14" t="n"/>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="14" t="n"/>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="14" t="n"/>
-      <c r="N9" s="14" t="n"/>
-      <c r="O9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="14" t="n"/>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="14" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="14" t="n"/>
-      <c r="J12" s="14" t="n"/>
-      <c r="K12" s="14" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="14" t="n"/>
-      <c r="G13" s="14" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="14" t="n"/>
-      <c r="J13" s="14" t="n"/>
-      <c r="K13" s="14" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
-      <c r="G14" s="14" t="n"/>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
-      <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
-      <c r="N14" s="14" t="n"/>
-      <c r="O14" s="14" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="14" t="n"/>
-      <c r="F15" s="14" t="n"/>
-      <c r="G15" s="14" t="n"/>
-      <c r="H15" s="14" t="n"/>
-      <c r="I15" s="14" t="n"/>
-      <c r="J15" s="14" t="n"/>
-      <c r="K15" s="14" t="n"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="14" t="n"/>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="14" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n"/>
-      <c r="F16" s="14" t="n"/>
-      <c r="G16" s="14" t="n"/>
-      <c r="H16" s="14" t="n"/>
-      <c r="I16" s="14" t="n"/>
-      <c r="J16" s="14" t="n"/>
-      <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="14" t="n"/>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="n"/>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="14" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="14" t="n"/>
-      <c r="F17" s="14" t="n"/>
-      <c r="G17" s="14" t="n"/>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" s="14" t="n"/>
-      <c r="J17" s="14" t="n"/>
-      <c r="K17" s="14" t="n"/>
-      <c r="L17" s="14" t="n"/>
-      <c r="M17" s="14" t="n"/>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="14" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="n"/>
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="14" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="14" t="n"/>
-      <c r="F18" s="14" t="n"/>
-      <c r="G18" s="14" t="n"/>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" s="14" t="n"/>
-      <c r="J18" s="14" t="n"/>
-      <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="14" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="14" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="14" t="n"/>
-      <c r="F19" s="14" t="n"/>
-      <c r="G19" s="14" t="n"/>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" s="14" t="n"/>
-      <c r="J19" s="14" t="n"/>
-      <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="14" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="n"/>
-      <c r="J20" s="14" t="n"/>
-      <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="n"/>
-      <c r="B21" s="14" t="n"/>
-      <c r="C21" s="14" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="14" t="n"/>
-      <c r="F21" s="14" t="n"/>
-      <c r="G21" s="14" t="n"/>
-      <c r="H21" s="14" t="n"/>
-      <c r="I21" s="14" t="n"/>
-      <c r="J21" s="14" t="n"/>
-      <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="14" t="n"/>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="n"/>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
-      <c r="J22" s="14" t="n"/>
-      <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
-      <c r="M22" s="14" t="n"/>
-      <c r="N22" s="14" t="n"/>
-      <c r="O22" s="14" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="n"/>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="14" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="14" t="n"/>
-      <c r="F23" s="14" t="n"/>
-      <c r="G23" s="14" t="n"/>
-      <c r="H23" s="14" t="n"/>
-      <c r="I23" s="14" t="n"/>
-      <c r="J23" s="14" t="n"/>
-      <c r="K23" s="14" t="n"/>
-      <c r="L23" s="14" t="n"/>
-      <c r="M23" s="14" t="n"/>
-      <c r="N23" s="14" t="n"/>
-      <c r="O23" s="14" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-      <c r="I24" s="14" t="n"/>
-      <c r="J24" s="14" t="n"/>
-      <c r="K24" s="14" t="n"/>
-      <c r="L24" s="14" t="n"/>
-      <c r="M24" s="14" t="n"/>
-      <c r="N24" s="14" t="n"/>
-      <c r="O24" s="14" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="n"/>
-      <c r="F25" s="14" t="n"/>
-      <c r="G25" s="14" t="n"/>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="14" t="n"/>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="14" t="n"/>
-      <c r="L25" s="14" t="n"/>
-      <c r="M25" s="14" t="n"/>
-      <c r="N25" s="14" t="n"/>
-      <c r="O25" s="14" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="n"/>
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="14" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="14" t="n"/>
-      <c r="F26" s="14" t="n"/>
-      <c r="G26" s="14" t="n"/>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="14" t="n"/>
-      <c r="J26" s="14" t="n"/>
-      <c r="K26" s="14" t="n"/>
-      <c r="L26" s="14" t="n"/>
-      <c r="M26" s="14" t="n"/>
-      <c r="N26" s="14" t="n"/>
-      <c r="O26" s="14" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="n"/>
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="14" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="14" t="n"/>
-      <c r="F27" s="14" t="n"/>
-      <c r="G27" s="14" t="n"/>
-      <c r="H27" s="14" t="n"/>
-      <c r="I27" s="14" t="n"/>
-      <c r="J27" s="14" t="n"/>
-      <c r="K27" s="14" t="n"/>
-      <c r="L27" s="14" t="n"/>
-      <c r="M27" s="14" t="n"/>
-      <c r="N27" s="14" t="n"/>
-      <c r="O27" s="14" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="n"/>
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="14" t="n"/>
-      <c r="F28" s="14" t="n"/>
-      <c r="G28" s="14" t="n"/>
-      <c r="H28" s="14" t="n"/>
-      <c r="I28" s="14" t="n"/>
-      <c r="J28" s="14" t="n"/>
-      <c r="K28" s="14" t="n"/>
-      <c r="L28" s="14" t="n"/>
-      <c r="M28" s="14" t="n"/>
-      <c r="N28" s="14" t="n"/>
-      <c r="O28" s="14" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="n"/>
-      <c r="B29" s="14" t="n"/>
-      <c r="C29" s="14" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="14" t="n"/>
-      <c r="F29" s="14" t="n"/>
-      <c r="G29" s="14" t="n"/>
-      <c r="H29" s="14" t="n"/>
-      <c r="I29" s="14" t="n"/>
-      <c r="J29" s="14" t="n"/>
-      <c r="K29" s="14" t="n"/>
-      <c r="L29" s="14" t="n"/>
-      <c r="M29" s="14" t="n"/>
-      <c r="N29" s="14" t="n"/>
-      <c r="O29" s="14" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="n"/>
-      <c r="B30" s="14" t="n"/>
-      <c r="C30" s="14" t="n"/>
-      <c r="D30" s="14" t="n"/>
-      <c r="E30" s="14" t="n"/>
-      <c r="F30" s="14" t="n"/>
-      <c r="G30" s="14" t="n"/>
-      <c r="H30" s="14" t="n"/>
-      <c r="I30" s="14" t="n"/>
-      <c r="J30" s="14" t="n"/>
-      <c r="K30" s="14" t="n"/>
-      <c r="L30" s="14" t="n"/>
-      <c r="M30" s="14" t="n"/>
-      <c r="N30" s="14" t="n"/>
-      <c r="O30" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24269,7 +23726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24364,7 +23821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24476,7 +23933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24707,7 +24164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24887,7 +24344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25063,6 +24520,135 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.2" customWidth="1" min="1" max="1"/>
+    <col width="42.9" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Reset</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Reset value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>UNGUARANTEED</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>Unguaranteed</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>Unguaranteed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>GOVERNMENT</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Government / Treasury guarantee</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Government / Treasury guarantee</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>Other guarantee</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>Other guarantee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>No detail information available</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>No detail information available</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -25626,135 +25212,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.2" customWidth="1" min="1" max="1"/>
-    <col width="42.9" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42" customHeight="1">
-      <c r="A1" s="2">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "ID")</f>
-        <v/>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="36" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Reset</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>Reset value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>UNGUARANTEED</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Unguaranteed</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Unguaranteed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>GOVERNMENT</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Government / Treasury guarantee</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>Government / Treasury guarantee</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="36" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>Other guarantee</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>Other guarantee</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>No detail information available</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>No detail information available</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C6"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
     <col width="11.7" customWidth="1" min="1" max="1"/>
     <col width="40.3" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
@@ -25867,7 +25324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26064,7 +25521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26176,7 +25633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26373,7 +25830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26502,7 +25959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26614,7 +26071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26740,7 +26197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26937,7 +26394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27117,549 +26574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="13">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="13" t="n"/>
-      <c r="L1" s="13" t="n"/>
-      <c r="M1" s="13" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="13" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: Non-Negative-Float
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="14" t="n"/>
-      <c r="D2" s="14" t="n"/>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="14" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="14" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="14" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="14" t="n"/>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="14" t="n"/>
-      <c r="K3" s="14" t="n"/>
-      <c r="L3" s="14" t="n"/>
-      <c r="M3" s="14" t="n"/>
-      <c r="N3" s="14" t="n"/>
-      <c r="O3" s="14" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
-      <c r="N4" s="14" t="n"/>
-      <c r="O4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n"/>
-      <c r="L5" s="14" t="n"/>
-      <c r="M5" s="14" t="n"/>
-      <c r="N5" s="14" t="n"/>
-      <c r="O5" s="14" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="n"/>
-      <c r="K7" s="14" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="14" t="n"/>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="14" t="n"/>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="14" t="n"/>
-      <c r="N9" s="14" t="n"/>
-      <c r="O9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="14" t="n"/>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="14" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="14" t="n"/>
-      <c r="J12" s="14" t="n"/>
-      <c r="K12" s="14" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="14" t="n"/>
-      <c r="G13" s="14" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="14" t="n"/>
-      <c r="J13" s="14" t="n"/>
-      <c r="K13" s="14" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
-      <c r="G14" s="14" t="n"/>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
-      <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
-      <c r="N14" s="14" t="n"/>
-      <c r="O14" s="14" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="14" t="n"/>
-      <c r="F15" s="14" t="n"/>
-      <c r="G15" s="14" t="n"/>
-      <c r="H15" s="14" t="n"/>
-      <c r="I15" s="14" t="n"/>
-      <c r="J15" s="14" t="n"/>
-      <c r="K15" s="14" t="n"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="14" t="n"/>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="14" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n"/>
-      <c r="F16" s="14" t="n"/>
-      <c r="G16" s="14" t="n"/>
-      <c r="H16" s="14" t="n"/>
-      <c r="I16" s="14" t="n"/>
-      <c r="J16" s="14" t="n"/>
-      <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="14" t="n"/>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="n"/>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="14" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="14" t="n"/>
-      <c r="F17" s="14" t="n"/>
-      <c r="G17" s="14" t="n"/>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" s="14" t="n"/>
-      <c r="J17" s="14" t="n"/>
-      <c r="K17" s="14" t="n"/>
-      <c r="L17" s="14" t="n"/>
-      <c r="M17" s="14" t="n"/>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="14" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="n"/>
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="14" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="14" t="n"/>
-      <c r="F18" s="14" t="n"/>
-      <c r="G18" s="14" t="n"/>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" s="14" t="n"/>
-      <c r="J18" s="14" t="n"/>
-      <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="14" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="14" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="14" t="n"/>
-      <c r="F19" s="14" t="n"/>
-      <c r="G19" s="14" t="n"/>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" s="14" t="n"/>
-      <c r="J19" s="14" t="n"/>
-      <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="14" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="n"/>
-      <c r="J20" s="14" t="n"/>
-      <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="n"/>
-      <c r="B21" s="14" t="n"/>
-      <c r="C21" s="14" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="14" t="n"/>
-      <c r="F21" s="14" t="n"/>
-      <c r="G21" s="14" t="n"/>
-      <c r="H21" s="14" t="n"/>
-      <c r="I21" s="14" t="n"/>
-      <c r="J21" s="14" t="n"/>
-      <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="14" t="n"/>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="n"/>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
-      <c r="J22" s="14" t="n"/>
-      <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
-      <c r="M22" s="14" t="n"/>
-      <c r="N22" s="14" t="n"/>
-      <c r="O22" s="14" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="n"/>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="14" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="14" t="n"/>
-      <c r="F23" s="14" t="n"/>
-      <c r="G23" s="14" t="n"/>
-      <c r="H23" s="14" t="n"/>
-      <c r="I23" s="14" t="n"/>
-      <c r="J23" s="14" t="n"/>
-      <c r="K23" s="14" t="n"/>
-      <c r="L23" s="14" t="n"/>
-      <c r="M23" s="14" t="n"/>
-      <c r="N23" s="14" t="n"/>
-      <c r="O23" s="14" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-      <c r="I24" s="14" t="n"/>
-      <c r="J24" s="14" t="n"/>
-      <c r="K24" s="14" t="n"/>
-      <c r="L24" s="14" t="n"/>
-      <c r="M24" s="14" t="n"/>
-      <c r="N24" s="14" t="n"/>
-      <c r="O24" s="14" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="n"/>
-      <c r="F25" s="14" t="n"/>
-      <c r="G25" s="14" t="n"/>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="14" t="n"/>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="14" t="n"/>
-      <c r="L25" s="14" t="n"/>
-      <c r="M25" s="14" t="n"/>
-      <c r="N25" s="14" t="n"/>
-      <c r="O25" s="14" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="n"/>
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="14" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="14" t="n"/>
-      <c r="F26" s="14" t="n"/>
-      <c r="G26" s="14" t="n"/>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="14" t="n"/>
-      <c r="J26" s="14" t="n"/>
-      <c r="K26" s="14" t="n"/>
-      <c r="L26" s="14" t="n"/>
-      <c r="M26" s="14" t="n"/>
-      <c r="N26" s="14" t="n"/>
-      <c r="O26" s="14" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="n"/>
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="14" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="14" t="n"/>
-      <c r="F27" s="14" t="n"/>
-      <c r="G27" s="14" t="n"/>
-      <c r="H27" s="14" t="n"/>
-      <c r="I27" s="14" t="n"/>
-      <c r="J27" s="14" t="n"/>
-      <c r="K27" s="14" t="n"/>
-      <c r="L27" s="14" t="n"/>
-      <c r="M27" s="14" t="n"/>
-      <c r="N27" s="14" t="n"/>
-      <c r="O27" s="14" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="n"/>
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="14" t="n"/>
-      <c r="F28" s="14" t="n"/>
-      <c r="G28" s="14" t="n"/>
-      <c r="H28" s="14" t="n"/>
-      <c r="I28" s="14" t="n"/>
-      <c r="J28" s="14" t="n"/>
-      <c r="K28" s="14" t="n"/>
-      <c r="L28" s="14" t="n"/>
-      <c r="M28" s="14" t="n"/>
-      <c r="N28" s="14" t="n"/>
-      <c r="O28" s="14" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="n"/>
-      <c r="B29" s="14" t="n"/>
-      <c r="C29" s="14" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="14" t="n"/>
-      <c r="F29" s="14" t="n"/>
-      <c r="G29" s="14" t="n"/>
-      <c r="H29" s="14" t="n"/>
-      <c r="I29" s="14" t="n"/>
-      <c r="J29" s="14" t="n"/>
-      <c r="K29" s="14" t="n"/>
-      <c r="L29" s="14" t="n"/>
-      <c r="M29" s="14" t="n"/>
-      <c r="N29" s="14" t="n"/>
-      <c r="O29" s="14" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="n"/>
-      <c r="B30" s="14" t="n"/>
-      <c r="C30" s="14" t="n"/>
-      <c r="D30" s="14" t="n"/>
-      <c r="E30" s="14" t="n"/>
-      <c r="F30" s="14" t="n"/>
-      <c r="G30" s="14" t="n"/>
-      <c r="H30" s="14" t="n"/>
-      <c r="I30" s="14" t="n"/>
-      <c r="J30" s="14" t="n"/>
-      <c r="K30" s="14" t="n"/>
-      <c r="L30" s="14" t="n"/>
-      <c r="M30" s="14" t="n"/>
-      <c r="N30" s="14" t="n"/>
-      <c r="O30" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27958,7 +26873,549 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="13">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="13" t="n"/>
+      <c r="H1" s="13" t="n"/>
+      <c r="I1" s="13" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="13" t="n"/>
+      <c r="L1" s="13" t="n"/>
+      <c r="M1" s="13" t="n"/>
+      <c r="N1" s="13" t="n"/>
+      <c r="O1" s="13" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: Non-Negative-Float
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="n"/>
+      <c r="C2" s="14" t="n"/>
+      <c r="D2" s="14" t="n"/>
+      <c r="E2" s="14" t="n"/>
+      <c r="F2" s="14" t="n"/>
+      <c r="G2" s="14" t="n"/>
+      <c r="H2" s="14" t="n"/>
+      <c r="I2" s="14" t="n"/>
+      <c r="J2" s="14" t="n"/>
+      <c r="K2" s="14" t="n"/>
+      <c r="L2" s="14" t="n"/>
+      <c r="M2" s="14" t="n"/>
+      <c r="N2" s="14" t="n"/>
+      <c r="O2" s="14" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="14" t="n"/>
+      <c r="K3" s="14" t="n"/>
+      <c r="L3" s="14" t="n"/>
+      <c r="M3" s="14" t="n"/>
+      <c r="N3" s="14" t="n"/>
+      <c r="O3" s="14" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="n"/>
+      <c r="B4" s="14" t="n"/>
+      <c r="C4" s="14" t="n"/>
+      <c r="D4" s="14" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="14" t="n"/>
+      <c r="G4" s="14" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="14" t="n"/>
+      <c r="J4" s="14" t="n"/>
+      <c r="K4" s="14" t="n"/>
+      <c r="L4" s="14" t="n"/>
+      <c r="M4" s="14" t="n"/>
+      <c r="N4" s="14" t="n"/>
+      <c r="O4" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="n"/>
+      <c r="B5" s="14" t="n"/>
+      <c r="C5" s="14" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+      <c r="L5" s="14" t="n"/>
+      <c r="M5" s="14" t="n"/>
+      <c r="N5" s="14" t="n"/>
+      <c r="O5" s="14" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="n"/>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14" t="n"/>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="14" t="n"/>
+      <c r="L7" s="14" t="n"/>
+      <c r="M7" s="14" t="n"/>
+      <c r="N7" s="14" t="n"/>
+      <c r="O7" s="14" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="14" t="n"/>
+      <c r="N8" s="14" t="n"/>
+      <c r="O8" s="14" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="14" t="n"/>
+      <c r="N9" s="14" t="n"/>
+      <c r="O9" s="14" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="14" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="14" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="14" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
+      <c r="O11" s="14" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n"/>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="14" t="n"/>
+      <c r="G12" s="14" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="14" t="n"/>
+      <c r="J12" s="14" t="n"/>
+      <c r="K12" s="14" t="n"/>
+      <c r="L12" s="14" t="n"/>
+      <c r="M12" s="14" t="n"/>
+      <c r="N12" s="14" t="n"/>
+      <c r="O12" s="14" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="14" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="14" t="n"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="14" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="14" t="n"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="14" t="n"/>
+      <c r="L14" s="14" t="n"/>
+      <c r="M14" s="14" t="n"/>
+      <c r="N14" s="14" t="n"/>
+      <c r="O14" s="14" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="14" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="14" t="n"/>
+      <c r="G15" s="14" t="n"/>
+      <c r="H15" s="14" t="n"/>
+      <c r="I15" s="14" t="n"/>
+      <c r="J15" s="14" t="n"/>
+      <c r="K15" s="14" t="n"/>
+      <c r="L15" s="14" t="n"/>
+      <c r="M15" s="14" t="n"/>
+      <c r="N15" s="14" t="n"/>
+      <c r="O15" s="14" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n"/>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="14" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="14" t="n"/>
+      <c r="H16" s="14" t="n"/>
+      <c r="I16" s="14" t="n"/>
+      <c r="J16" s="14" t="n"/>
+      <c r="K16" s="14" t="n"/>
+      <c r="L16" s="14" t="n"/>
+      <c r="M16" s="14" t="n"/>
+      <c r="N16" s="14" t="n"/>
+      <c r="O16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="14" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="14" t="n"/>
+      <c r="H17" s="14" t="n"/>
+      <c r="I17" s="14" t="n"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+      <c r="L17" s="14" t="n"/>
+      <c r="M17" s="14" t="n"/>
+      <c r="N17" s="14" t="n"/>
+      <c r="O17" s="14" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="14" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="14" t="n"/>
+      <c r="G18" s="14" t="n"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="14" t="n"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+      <c r="L18" s="14" t="n"/>
+      <c r="M18" s="14" t="n"/>
+      <c r="N18" s="14" t="n"/>
+      <c r="O18" s="14" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="14" t="n"/>
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+      <c r="L19" s="14" t="n"/>
+      <c r="M19" s="14" t="n"/>
+      <c r="N19" s="14" t="n"/>
+      <c r="O19" s="14" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+      <c r="N20" s="14" t="n"/>
+      <c r="O20" s="14" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="14" t="n"/>
+      <c r="M21" s="14" t="n"/>
+      <c r="N21" s="14" t="n"/>
+      <c r="O21" s="14" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="14" t="n"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+      <c r="L22" s="14" t="n"/>
+      <c r="M22" s="14" t="n"/>
+      <c r="N22" s="14" t="n"/>
+      <c r="O22" s="14" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="14" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="14" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="14" t="n"/>
+      <c r="H23" s="14" t="n"/>
+      <c r="I23" s="14" t="n"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+      <c r="L23" s="14" t="n"/>
+      <c r="M23" s="14" t="n"/>
+      <c r="N23" s="14" t="n"/>
+      <c r="O23" s="14" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="14" t="n"/>
+      <c r="I24" s="14" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="14" t="n"/>
+      <c r="N24" s="14" t="n"/>
+      <c r="O24" s="14" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="14" t="n"/>
+      <c r="G25" s="14" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="14" t="n"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="14" t="n"/>
+      <c r="M25" s="14" t="n"/>
+      <c r="N25" s="14" t="n"/>
+      <c r="O25" s="14" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="14" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="14" t="n"/>
+      <c r="F26" s="14" t="n"/>
+      <c r="G26" s="14" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="14" t="n"/>
+      <c r="J26" s="14" t="n"/>
+      <c r="K26" s="14" t="n"/>
+      <c r="L26" s="14" t="n"/>
+      <c r="M26" s="14" t="n"/>
+      <c r="N26" s="14" t="n"/>
+      <c r="O26" s="14" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="14" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="14" t="n"/>
+      <c r="F27" s="14" t="n"/>
+      <c r="G27" s="14" t="n"/>
+      <c r="H27" s="14" t="n"/>
+      <c r="I27" s="14" t="n"/>
+      <c r="J27" s="14" t="n"/>
+      <c r="K27" s="14" t="n"/>
+      <c r="L27" s="14" t="n"/>
+      <c r="M27" s="14" t="n"/>
+      <c r="N27" s="14" t="n"/>
+      <c r="O27" s="14" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n"/>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="14" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="14" t="n"/>
+      <c r="F28" s="14" t="n"/>
+      <c r="G28" s="14" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="I28" s="14" t="n"/>
+      <c r="J28" s="14" t="n"/>
+      <c r="K28" s="14" t="n"/>
+      <c r="L28" s="14" t="n"/>
+      <c r="M28" s="14" t="n"/>
+      <c r="N28" s="14" t="n"/>
+      <c r="O28" s="14" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n"/>
+      <c r="B29" s="14" t="n"/>
+      <c r="C29" s="14" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="14" t="n"/>
+      <c r="G29" s="14" t="n"/>
+      <c r="H29" s="14" t="n"/>
+      <c r="I29" s="14" t="n"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+      <c r="L29" s="14" t="n"/>
+      <c r="M29" s="14" t="n"/>
+      <c r="N29" s="14" t="n"/>
+      <c r="O29" s="14" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n"/>
+      <c r="B30" s="14" t="n"/>
+      <c r="C30" s="14" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="14" t="n"/>
+      <c r="F30" s="14" t="n"/>
+      <c r="G30" s="14" t="n"/>
+      <c r="H30" s="14" t="n"/>
+      <c r="I30" s="14" t="n"/>
+      <c r="J30" s="14" t="n"/>
+      <c r="K30" s="14" t="n"/>
+      <c r="L30" s="14" t="n"/>
+      <c r="M30" s="14" t="n"/>
+      <c r="N30" s="14" t="n"/>
+      <c r="O30" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28404,7 +27861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28526,7 +27983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28651,7 +28108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28754,7 +28211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28989,7 +28446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29114,7 +28571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29393,7 +28850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29514,7 +28971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29679,549 +29136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="13">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="13" t="n"/>
-      <c r="L1" s="13" t="n"/>
-      <c r="M1" s="13" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="13" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-        type: float
-        </t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="14" t="n"/>
-      <c r="D2" s="14" t="n"/>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="14" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="14" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="14" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="14" t="n"/>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="14" t="n"/>
-      <c r="K3" s="14" t="n"/>
-      <c r="L3" s="14" t="n"/>
-      <c r="M3" s="14" t="n"/>
-      <c r="N3" s="14" t="n"/>
-      <c r="O3" s="14" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
-      <c r="N4" s="14" t="n"/>
-      <c r="O4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n"/>
-      <c r="L5" s="14" t="n"/>
-      <c r="M5" s="14" t="n"/>
-      <c r="N5" s="14" t="n"/>
-      <c r="O5" s="14" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="n"/>
-      <c r="K7" s="14" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="14" t="n"/>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="14" t="n"/>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="14" t="n"/>
-      <c r="N9" s="14" t="n"/>
-      <c r="O9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="14" t="n"/>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="14" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="14" t="n"/>
-      <c r="J12" s="14" t="n"/>
-      <c r="K12" s="14" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="14" t="n"/>
-      <c r="G13" s="14" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="14" t="n"/>
-      <c r="J13" s="14" t="n"/>
-      <c r="K13" s="14" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
-      <c r="G14" s="14" t="n"/>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
-      <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
-      <c r="N14" s="14" t="n"/>
-      <c r="O14" s="14" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="14" t="n"/>
-      <c r="F15" s="14" t="n"/>
-      <c r="G15" s="14" t="n"/>
-      <c r="H15" s="14" t="n"/>
-      <c r="I15" s="14" t="n"/>
-      <c r="J15" s="14" t="n"/>
-      <c r="K15" s="14" t="n"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="14" t="n"/>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="14" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n"/>
-      <c r="F16" s="14" t="n"/>
-      <c r="G16" s="14" t="n"/>
-      <c r="H16" s="14" t="n"/>
-      <c r="I16" s="14" t="n"/>
-      <c r="J16" s="14" t="n"/>
-      <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="14" t="n"/>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="n"/>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="14" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="14" t="n"/>
-      <c r="F17" s="14" t="n"/>
-      <c r="G17" s="14" t="n"/>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" s="14" t="n"/>
-      <c r="J17" s="14" t="n"/>
-      <c r="K17" s="14" t="n"/>
-      <c r="L17" s="14" t="n"/>
-      <c r="M17" s="14" t="n"/>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="14" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="n"/>
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="14" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="14" t="n"/>
-      <c r="F18" s="14" t="n"/>
-      <c r="G18" s="14" t="n"/>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" s="14" t="n"/>
-      <c r="J18" s="14" t="n"/>
-      <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="14" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="14" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="14" t="n"/>
-      <c r="F19" s="14" t="n"/>
-      <c r="G19" s="14" t="n"/>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" s="14" t="n"/>
-      <c r="J19" s="14" t="n"/>
-      <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="14" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="n"/>
-      <c r="J20" s="14" t="n"/>
-      <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="n"/>
-      <c r="B21" s="14" t="n"/>
-      <c r="C21" s="14" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="14" t="n"/>
-      <c r="F21" s="14" t="n"/>
-      <c r="G21" s="14" t="n"/>
-      <c r="H21" s="14" t="n"/>
-      <c r="I21" s="14" t="n"/>
-      <c r="J21" s="14" t="n"/>
-      <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="14" t="n"/>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="n"/>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
-      <c r="J22" s="14" t="n"/>
-      <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
-      <c r="M22" s="14" t="n"/>
-      <c r="N22" s="14" t="n"/>
-      <c r="O22" s="14" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="n"/>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="14" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="14" t="n"/>
-      <c r="F23" s="14" t="n"/>
-      <c r="G23" s="14" t="n"/>
-      <c r="H23" s="14" t="n"/>
-      <c r="I23" s="14" t="n"/>
-      <c r="J23" s="14" t="n"/>
-      <c r="K23" s="14" t="n"/>
-      <c r="L23" s="14" t="n"/>
-      <c r="M23" s="14" t="n"/>
-      <c r="N23" s="14" t="n"/>
-      <c r="O23" s="14" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-      <c r="I24" s="14" t="n"/>
-      <c r="J24" s="14" t="n"/>
-      <c r="K24" s="14" t="n"/>
-      <c r="L24" s="14" t="n"/>
-      <c r="M24" s="14" t="n"/>
-      <c r="N24" s="14" t="n"/>
-      <c r="O24" s="14" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="n"/>
-      <c r="F25" s="14" t="n"/>
-      <c r="G25" s="14" t="n"/>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="14" t="n"/>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="14" t="n"/>
-      <c r="L25" s="14" t="n"/>
-      <c r="M25" s="14" t="n"/>
-      <c r="N25" s="14" t="n"/>
-      <c r="O25" s="14" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="n"/>
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="14" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="14" t="n"/>
-      <c r="F26" s="14" t="n"/>
-      <c r="G26" s="14" t="n"/>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="14" t="n"/>
-      <c r="J26" s="14" t="n"/>
-      <c r="K26" s="14" t="n"/>
-      <c r="L26" s="14" t="n"/>
-      <c r="M26" s="14" t="n"/>
-      <c r="N26" s="14" t="n"/>
-      <c r="O26" s="14" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="n"/>
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="14" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="14" t="n"/>
-      <c r="F27" s="14" t="n"/>
-      <c r="G27" s="14" t="n"/>
-      <c r="H27" s="14" t="n"/>
-      <c r="I27" s="14" t="n"/>
-      <c r="J27" s="14" t="n"/>
-      <c r="K27" s="14" t="n"/>
-      <c r="L27" s="14" t="n"/>
-      <c r="M27" s="14" t="n"/>
-      <c r="N27" s="14" t="n"/>
-      <c r="O27" s="14" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="n"/>
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="14" t="n"/>
-      <c r="F28" s="14" t="n"/>
-      <c r="G28" s="14" t="n"/>
-      <c r="H28" s="14" t="n"/>
-      <c r="I28" s="14" t="n"/>
-      <c r="J28" s="14" t="n"/>
-      <c r="K28" s="14" t="n"/>
-      <c r="L28" s="14" t="n"/>
-      <c r="M28" s="14" t="n"/>
-      <c r="N28" s="14" t="n"/>
-      <c r="O28" s="14" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="n"/>
-      <c r="B29" s="14" t="n"/>
-      <c r="C29" s="14" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="14" t="n"/>
-      <c r="F29" s="14" t="n"/>
-      <c r="G29" s="14" t="n"/>
-      <c r="H29" s="14" t="n"/>
-      <c r="I29" s="14" t="n"/>
-      <c r="J29" s="14" t="n"/>
-      <c r="K29" s="14" t="n"/>
-      <c r="L29" s="14" t="n"/>
-      <c r="M29" s="14" t="n"/>
-      <c r="N29" s="14" t="n"/>
-      <c r="O29" s="14" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="n"/>
-      <c r="B30" s="14" t="n"/>
-      <c r="C30" s="14" t="n"/>
-      <c r="D30" s="14" t="n"/>
-      <c r="E30" s="14" t="n"/>
-      <c r="F30" s="14" t="n"/>
-      <c r="G30" s="14" t="n"/>
-      <c r="H30" s="14" t="n"/>
-      <c r="I30" s="14" t="n"/>
-      <c r="J30" s="14" t="n"/>
-      <c r="K30" s="14" t="n"/>
-      <c r="L30" s="14" t="n"/>
-      <c r="M30" s="14" t="n"/>
-      <c r="N30" s="14" t="n"/>
-      <c r="O30" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30408,7 +29323,549 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="13">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="13" t="n"/>
+      <c r="H1" s="13" t="n"/>
+      <c r="I1" s="13" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="13" t="n"/>
+      <c r="L1" s="13" t="n"/>
+      <c r="M1" s="13" t="n"/>
+      <c r="N1" s="13" t="n"/>
+      <c r="O1" s="13" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        type: float
+        </t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="n"/>
+      <c r="C2" s="14" t="n"/>
+      <c r="D2" s="14" t="n"/>
+      <c r="E2" s="14" t="n"/>
+      <c r="F2" s="14" t="n"/>
+      <c r="G2" s="14" t="n"/>
+      <c r="H2" s="14" t="n"/>
+      <c r="I2" s="14" t="n"/>
+      <c r="J2" s="14" t="n"/>
+      <c r="K2" s="14" t="n"/>
+      <c r="L2" s="14" t="n"/>
+      <c r="M2" s="14" t="n"/>
+      <c r="N2" s="14" t="n"/>
+      <c r="O2" s="14" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="14" t="n"/>
+      <c r="K3" s="14" t="n"/>
+      <c r="L3" s="14" t="n"/>
+      <c r="M3" s="14" t="n"/>
+      <c r="N3" s="14" t="n"/>
+      <c r="O3" s="14" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="n"/>
+      <c r="B4" s="14" t="n"/>
+      <c r="C4" s="14" t="n"/>
+      <c r="D4" s="14" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="14" t="n"/>
+      <c r="G4" s="14" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="14" t="n"/>
+      <c r="J4" s="14" t="n"/>
+      <c r="K4" s="14" t="n"/>
+      <c r="L4" s="14" t="n"/>
+      <c r="M4" s="14" t="n"/>
+      <c r="N4" s="14" t="n"/>
+      <c r="O4" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="n"/>
+      <c r="B5" s="14" t="n"/>
+      <c r="C5" s="14" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+      <c r="L5" s="14" t="n"/>
+      <c r="M5" s="14" t="n"/>
+      <c r="N5" s="14" t="n"/>
+      <c r="O5" s="14" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="n"/>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14" t="n"/>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="14" t="n"/>
+      <c r="L7" s="14" t="n"/>
+      <c r="M7" s="14" t="n"/>
+      <c r="N7" s="14" t="n"/>
+      <c r="O7" s="14" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="14" t="n"/>
+      <c r="N8" s="14" t="n"/>
+      <c r="O8" s="14" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="14" t="n"/>
+      <c r="N9" s="14" t="n"/>
+      <c r="O9" s="14" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="14" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="14" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="14" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
+      <c r="O11" s="14" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n"/>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="14" t="n"/>
+      <c r="G12" s="14" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="14" t="n"/>
+      <c r="J12" s="14" t="n"/>
+      <c r="K12" s="14" t="n"/>
+      <c r="L12" s="14" t="n"/>
+      <c r="M12" s="14" t="n"/>
+      <c r="N12" s="14" t="n"/>
+      <c r="O12" s="14" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="14" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="14" t="n"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="14" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="14" t="n"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="14" t="n"/>
+      <c r="L14" s="14" t="n"/>
+      <c r="M14" s="14" t="n"/>
+      <c r="N14" s="14" t="n"/>
+      <c r="O14" s="14" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="14" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="14" t="n"/>
+      <c r="G15" s="14" t="n"/>
+      <c r="H15" s="14" t="n"/>
+      <c r="I15" s="14" t="n"/>
+      <c r="J15" s="14" t="n"/>
+      <c r="K15" s="14" t="n"/>
+      <c r="L15" s="14" t="n"/>
+      <c r="M15" s="14" t="n"/>
+      <c r="N15" s="14" t="n"/>
+      <c r="O15" s="14" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n"/>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="14" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="14" t="n"/>
+      <c r="H16" s="14" t="n"/>
+      <c r="I16" s="14" t="n"/>
+      <c r="J16" s="14" t="n"/>
+      <c r="K16" s="14" t="n"/>
+      <c r="L16" s="14" t="n"/>
+      <c r="M16" s="14" t="n"/>
+      <c r="N16" s="14" t="n"/>
+      <c r="O16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="14" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="14" t="n"/>
+      <c r="H17" s="14" t="n"/>
+      <c r="I17" s="14" t="n"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+      <c r="L17" s="14" t="n"/>
+      <c r="M17" s="14" t="n"/>
+      <c r="N17" s="14" t="n"/>
+      <c r="O17" s="14" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="14" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="14" t="n"/>
+      <c r="G18" s="14" t="n"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="14" t="n"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+      <c r="L18" s="14" t="n"/>
+      <c r="M18" s="14" t="n"/>
+      <c r="N18" s="14" t="n"/>
+      <c r="O18" s="14" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="14" t="n"/>
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+      <c r="L19" s="14" t="n"/>
+      <c r="M19" s="14" t="n"/>
+      <c r="N19" s="14" t="n"/>
+      <c r="O19" s="14" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+      <c r="N20" s="14" t="n"/>
+      <c r="O20" s="14" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="14" t="n"/>
+      <c r="M21" s="14" t="n"/>
+      <c r="N21" s="14" t="n"/>
+      <c r="O21" s="14" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="14" t="n"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+      <c r="L22" s="14" t="n"/>
+      <c r="M22" s="14" t="n"/>
+      <c r="N22" s="14" t="n"/>
+      <c r="O22" s="14" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="14" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="14" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="14" t="n"/>
+      <c r="H23" s="14" t="n"/>
+      <c r="I23" s="14" t="n"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+      <c r="L23" s="14" t="n"/>
+      <c r="M23" s="14" t="n"/>
+      <c r="N23" s="14" t="n"/>
+      <c r="O23" s="14" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="14" t="n"/>
+      <c r="I24" s="14" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="14" t="n"/>
+      <c r="N24" s="14" t="n"/>
+      <c r="O24" s="14" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="14" t="n"/>
+      <c r="G25" s="14" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="14" t="n"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="14" t="n"/>
+      <c r="M25" s="14" t="n"/>
+      <c r="N25" s="14" t="n"/>
+      <c r="O25" s="14" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="14" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="14" t="n"/>
+      <c r="F26" s="14" t="n"/>
+      <c r="G26" s="14" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="14" t="n"/>
+      <c r="J26" s="14" t="n"/>
+      <c r="K26" s="14" t="n"/>
+      <c r="L26" s="14" t="n"/>
+      <c r="M26" s="14" t="n"/>
+      <c r="N26" s="14" t="n"/>
+      <c r="O26" s="14" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="14" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="14" t="n"/>
+      <c r="F27" s="14" t="n"/>
+      <c r="G27" s="14" t="n"/>
+      <c r="H27" s="14" t="n"/>
+      <c r="I27" s="14" t="n"/>
+      <c r="J27" s="14" t="n"/>
+      <c r="K27" s="14" t="n"/>
+      <c r="L27" s="14" t="n"/>
+      <c r="M27" s="14" t="n"/>
+      <c r="N27" s="14" t="n"/>
+      <c r="O27" s="14" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n"/>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="14" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="14" t="n"/>
+      <c r="F28" s="14" t="n"/>
+      <c r="G28" s="14" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="I28" s="14" t="n"/>
+      <c r="J28" s="14" t="n"/>
+      <c r="K28" s="14" t="n"/>
+      <c r="L28" s="14" t="n"/>
+      <c r="M28" s="14" t="n"/>
+      <c r="N28" s="14" t="n"/>
+      <c r="O28" s="14" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n"/>
+      <c r="B29" s="14" t="n"/>
+      <c r="C29" s="14" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="14" t="n"/>
+      <c r="G29" s="14" t="n"/>
+      <c r="H29" s="14" t="n"/>
+      <c r="I29" s="14" t="n"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+      <c r="L29" s="14" t="n"/>
+      <c r="M29" s="14" t="n"/>
+      <c r="N29" s="14" t="n"/>
+      <c r="O29" s="14" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n"/>
+      <c r="B30" s="14" t="n"/>
+      <c r="C30" s="14" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="14" t="n"/>
+      <c r="F30" s="14" t="n"/>
+      <c r="G30" s="14" t="n"/>
+      <c r="H30" s="14" t="n"/>
+      <c r="I30" s="14" t="n"/>
+      <c r="J30" s="14" t="n"/>
+      <c r="K30" s="14" t="n"/>
+      <c r="L30" s="14" t="n"/>
+      <c r="M30" s="14" t="n"/>
+      <c r="N30" s="14" t="n"/>
+      <c r="O30" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30534,7 +29991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32346,7 +31803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33104,7 +32561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33743,7 +33200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77205,7 +76662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77309,7 +76766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77596,7 +77053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77725,7 +77182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -77938,557 +77395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="13">
-        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
-        <v/>
-      </c>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="13" t="n"/>
-      <c r="L1" s="13" t="n"/>
-      <c r="M1" s="13" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="13" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-    Identification code of a debt security.
-    type = string
-    pattern = "^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|(PE[A-Za-z0-9@$-]+_[!-~]+)$"
-    max_length = 51
-    The first available from the list below that
-    satisfies the constraints above is to be used to identify a debt security:
-    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
-    * Private Identifier Code (PRIVATE_ID) constructed as
-      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
-    </t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="14" t="n"/>
-      <c r="D2" s="14" t="n"/>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="14" t="n"/>
-      <c r="G2" s="14" t="n"/>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="14" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="14" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="14" t="n"/>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="14" t="n"/>
-      <c r="K3" s="14" t="n"/>
-      <c r="L3" s="14" t="n"/>
-      <c r="M3" s="14" t="n"/>
-      <c r="N3" s="14" t="n"/>
-      <c r="O3" s="14" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
-      <c r="N4" s="14" t="n"/>
-      <c r="O4" s="14" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="n"/>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n"/>
-      <c r="L5" s="14" t="n"/>
-      <c r="M5" s="14" t="n"/>
-      <c r="N5" s="14" t="n"/>
-      <c r="O5" s="14" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="n"/>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="14" t="n"/>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="n"/>
-      <c r="K7" s="14" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="14" t="n"/>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="14" t="n"/>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="14" t="n"/>
-      <c r="N9" s="14" t="n"/>
-      <c r="O9" s="14" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="n"/>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="14" t="n"/>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="14" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="14" t="n"/>
-      <c r="D11" s="14" t="n"/>
-      <c r="E11" s="14" t="n"/>
-      <c r="F11" s="14" t="n"/>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="14" t="n"/>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="14" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="14" t="n"/>
-      <c r="J12" s="14" t="n"/>
-      <c r="K12" s="14" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="14" t="n"/>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="14" t="n"/>
-      <c r="G13" s="14" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="14" t="n"/>
-      <c r="J13" s="14" t="n"/>
-      <c r="K13" s="14" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="14" t="n"/>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="14" t="n"/>
-      <c r="G14" s="14" t="n"/>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
-      <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="14" t="n"/>
-      <c r="N14" s="14" t="n"/>
-      <c r="O14" s="14" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="n"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="14" t="n"/>
-      <c r="F15" s="14" t="n"/>
-      <c r="G15" s="14" t="n"/>
-      <c r="H15" s="14" t="n"/>
-      <c r="I15" s="14" t="n"/>
-      <c r="J15" s="14" t="n"/>
-      <c r="K15" s="14" t="n"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="14" t="n"/>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="14" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="14" t="n"/>
-      <c r="F16" s="14" t="n"/>
-      <c r="G16" s="14" t="n"/>
-      <c r="H16" s="14" t="n"/>
-      <c r="I16" s="14" t="n"/>
-      <c r="J16" s="14" t="n"/>
-      <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="14" t="n"/>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="n"/>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="14" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="14" t="n"/>
-      <c r="F17" s="14" t="n"/>
-      <c r="G17" s="14" t="n"/>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" s="14" t="n"/>
-      <c r="J17" s="14" t="n"/>
-      <c r="K17" s="14" t="n"/>
-      <c r="L17" s="14" t="n"/>
-      <c r="M17" s="14" t="n"/>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="14" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="n"/>
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="14" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="14" t="n"/>
-      <c r="F18" s="14" t="n"/>
-      <c r="G18" s="14" t="n"/>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" s="14" t="n"/>
-      <c r="J18" s="14" t="n"/>
-      <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="14" t="n"/>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="14" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="14" t="n"/>
-      <c r="F19" s="14" t="n"/>
-      <c r="G19" s="14" t="n"/>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" s="14" t="n"/>
-      <c r="J19" s="14" t="n"/>
-      <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="14" t="n"/>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="n"/>
-      <c r="J20" s="14" t="n"/>
-      <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="n"/>
-      <c r="B21" s="14" t="n"/>
-      <c r="C21" s="14" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="14" t="n"/>
-      <c r="F21" s="14" t="n"/>
-      <c r="G21" s="14" t="n"/>
-      <c r="H21" s="14" t="n"/>
-      <c r="I21" s="14" t="n"/>
-      <c r="J21" s="14" t="n"/>
-      <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="14" t="n"/>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="n"/>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
-      <c r="J22" s="14" t="n"/>
-      <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
-      <c r="M22" s="14" t="n"/>
-      <c r="N22" s="14" t="n"/>
-      <c r="O22" s="14" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="n"/>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="14" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="14" t="n"/>
-      <c r="F23" s="14" t="n"/>
-      <c r="G23" s="14" t="n"/>
-      <c r="H23" s="14" t="n"/>
-      <c r="I23" s="14" t="n"/>
-      <c r="J23" s="14" t="n"/>
-      <c r="K23" s="14" t="n"/>
-      <c r="L23" s="14" t="n"/>
-      <c r="M23" s="14" t="n"/>
-      <c r="N23" s="14" t="n"/>
-      <c r="O23" s="14" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-      <c r="I24" s="14" t="n"/>
-      <c r="J24" s="14" t="n"/>
-      <c r="K24" s="14" t="n"/>
-      <c r="L24" s="14" t="n"/>
-      <c r="M24" s="14" t="n"/>
-      <c r="N24" s="14" t="n"/>
-      <c r="O24" s="14" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="n"/>
-      <c r="B25" s="14" t="n"/>
-      <c r="C25" s="14" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="n"/>
-      <c r="F25" s="14" t="n"/>
-      <c r="G25" s="14" t="n"/>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="14" t="n"/>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="14" t="n"/>
-      <c r="L25" s="14" t="n"/>
-      <c r="M25" s="14" t="n"/>
-      <c r="N25" s="14" t="n"/>
-      <c r="O25" s="14" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="n"/>
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="14" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="14" t="n"/>
-      <c r="F26" s="14" t="n"/>
-      <c r="G26" s="14" t="n"/>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="14" t="n"/>
-      <c r="J26" s="14" t="n"/>
-      <c r="K26" s="14" t="n"/>
-      <c r="L26" s="14" t="n"/>
-      <c r="M26" s="14" t="n"/>
-      <c r="N26" s="14" t="n"/>
-      <c r="O26" s="14" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="n"/>
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="14" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="14" t="n"/>
-      <c r="F27" s="14" t="n"/>
-      <c r="G27" s="14" t="n"/>
-      <c r="H27" s="14" t="n"/>
-      <c r="I27" s="14" t="n"/>
-      <c r="J27" s="14" t="n"/>
-      <c r="K27" s="14" t="n"/>
-      <c r="L27" s="14" t="n"/>
-      <c r="M27" s="14" t="n"/>
-      <c r="N27" s="14" t="n"/>
-      <c r="O27" s="14" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="n"/>
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="14" t="n"/>
-      <c r="F28" s="14" t="n"/>
-      <c r="G28" s="14" t="n"/>
-      <c r="H28" s="14" t="n"/>
-      <c r="I28" s="14" t="n"/>
-      <c r="J28" s="14" t="n"/>
-      <c r="K28" s="14" t="n"/>
-      <c r="L28" s="14" t="n"/>
-      <c r="M28" s="14" t="n"/>
-      <c r="N28" s="14" t="n"/>
-      <c r="O28" s="14" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="n"/>
-      <c r="B29" s="14" t="n"/>
-      <c r="C29" s="14" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="14" t="n"/>
-      <c r="F29" s="14" t="n"/>
-      <c r="G29" s="14" t="n"/>
-      <c r="H29" s="14" t="n"/>
-      <c r="I29" s="14" t="n"/>
-      <c r="J29" s="14" t="n"/>
-      <c r="K29" s="14" t="n"/>
-      <c r="L29" s="14" t="n"/>
-      <c r="M29" s="14" t="n"/>
-      <c r="N29" s="14" t="n"/>
-      <c r="O29" s="14" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="n"/>
-      <c r="B30" s="14" t="n"/>
-      <c r="C30" s="14" t="n"/>
-      <c r="D30" s="14" t="n"/>
-      <c r="E30" s="14" t="n"/>
-      <c r="F30" s="14" t="n"/>
-      <c r="G30" s="14" t="n"/>
-      <c r="H30" s="14" t="n"/>
-      <c r="I30" s="14" t="n"/>
-      <c r="J30" s="14" t="n"/>
-      <c r="K30" s="14" t="n"/>
-      <c r="L30" s="14" t="n"/>
-      <c r="M30" s="14" t="n"/>
-      <c r="N30" s="14" t="n"/>
-      <c r="O30" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O30"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78634,7 +77541,557 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="13">
+        <f>HYPERLINK("#DATA_STRUCTURE!A1", "Description")</f>
+        <v/>
+      </c>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="13" t="n"/>
+      <c r="H1" s="13" t="n"/>
+      <c r="I1" s="13" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="13" t="n"/>
+      <c r="L1" s="13" t="n"/>
+      <c r="M1" s="13" t="n"/>
+      <c r="N1" s="13" t="n"/>
+      <c r="O1" s="13" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Identification code of a debt security.
+    type = string
+    pattern = "^(I[A-Z][A-Z][A-Z0-9]{9}[0-9])|(PE[A-Za-z0-9@$-]+_[!-~]+)$"
+    max_length = 51
+    The first available from the list below that
+    satisfies the constraints above is to be used to identify a debt security:
+    * The ISIN Identifier (ISIN_ID) constructed as "I{ISIN_ID}".
+    * Private Identifier Code (PRIVATE_ID) constructed as
+      "P{RA_ID}_{PRIVATE_ID}`` where RA_ID is the ESCB_ID of the RA.
+    </t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="n"/>
+      <c r="C2" s="14" t="n"/>
+      <c r="D2" s="14" t="n"/>
+      <c r="E2" s="14" t="n"/>
+      <c r="F2" s="14" t="n"/>
+      <c r="G2" s="14" t="n"/>
+      <c r="H2" s="14" t="n"/>
+      <c r="I2" s="14" t="n"/>
+      <c r="J2" s="14" t="n"/>
+      <c r="K2" s="14" t="n"/>
+      <c r="L2" s="14" t="n"/>
+      <c r="M2" s="14" t="n"/>
+      <c r="N2" s="14" t="n"/>
+      <c r="O2" s="14" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="14" t="n"/>
+      <c r="K3" s="14" t="n"/>
+      <c r="L3" s="14" t="n"/>
+      <c r="M3" s="14" t="n"/>
+      <c r="N3" s="14" t="n"/>
+      <c r="O3" s="14" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="n"/>
+      <c r="B4" s="14" t="n"/>
+      <c r="C4" s="14" t="n"/>
+      <c r="D4" s="14" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="14" t="n"/>
+      <c r="G4" s="14" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="14" t="n"/>
+      <c r="J4" s="14" t="n"/>
+      <c r="K4" s="14" t="n"/>
+      <c r="L4" s="14" t="n"/>
+      <c r="M4" s="14" t="n"/>
+      <c r="N4" s="14" t="n"/>
+      <c r="O4" s="14" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="n"/>
+      <c r="B5" s="14" t="n"/>
+      <c r="C5" s="14" t="n"/>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+      <c r="L5" s="14" t="n"/>
+      <c r="M5" s="14" t="n"/>
+      <c r="N5" s="14" t="n"/>
+      <c r="O5" s="14" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="n"/>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14" t="n"/>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="14" t="n"/>
+      <c r="L7" s="14" t="n"/>
+      <c r="M7" s="14" t="n"/>
+      <c r="N7" s="14" t="n"/>
+      <c r="O7" s="14" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="14" t="n"/>
+      <c r="N8" s="14" t="n"/>
+      <c r="O8" s="14" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n"/>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="14" t="n"/>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="14" t="n"/>
+      <c r="N9" s="14" t="n"/>
+      <c r="O9" s="14" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="14" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="14" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="14" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
+      <c r="O11" s="14" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n"/>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="14" t="n"/>
+      <c r="G12" s="14" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="14" t="n"/>
+      <c r="J12" s="14" t="n"/>
+      <c r="K12" s="14" t="n"/>
+      <c r="L12" s="14" t="n"/>
+      <c r="M12" s="14" t="n"/>
+      <c r="N12" s="14" t="n"/>
+      <c r="O12" s="14" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="14" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="14" t="n"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="14" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="14" t="n"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="14" t="n"/>
+      <c r="L14" s="14" t="n"/>
+      <c r="M14" s="14" t="n"/>
+      <c r="N14" s="14" t="n"/>
+      <c r="O14" s="14" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="14" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="14" t="n"/>
+      <c r="G15" s="14" t="n"/>
+      <c r="H15" s="14" t="n"/>
+      <c r="I15" s="14" t="n"/>
+      <c r="J15" s="14" t="n"/>
+      <c r="K15" s="14" t="n"/>
+      <c r="L15" s="14" t="n"/>
+      <c r="M15" s="14" t="n"/>
+      <c r="N15" s="14" t="n"/>
+      <c r="O15" s="14" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n"/>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="14" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14" t="n"/>
+      <c r="G16" s="14" t="n"/>
+      <c r="H16" s="14" t="n"/>
+      <c r="I16" s="14" t="n"/>
+      <c r="J16" s="14" t="n"/>
+      <c r="K16" s="14" t="n"/>
+      <c r="L16" s="14" t="n"/>
+      <c r="M16" s="14" t="n"/>
+      <c r="N16" s="14" t="n"/>
+      <c r="O16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n"/>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="14" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="14" t="n"/>
+      <c r="H17" s="14" t="n"/>
+      <c r="I17" s="14" t="n"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+      <c r="L17" s="14" t="n"/>
+      <c r="M17" s="14" t="n"/>
+      <c r="N17" s="14" t="n"/>
+      <c r="O17" s="14" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="14" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="14" t="n"/>
+      <c r="G18" s="14" t="n"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="14" t="n"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+      <c r="L18" s="14" t="n"/>
+      <c r="M18" s="14" t="n"/>
+      <c r="N18" s="14" t="n"/>
+      <c r="O18" s="14" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="14" t="n"/>
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+      <c r="L19" s="14" t="n"/>
+      <c r="M19" s="14" t="n"/>
+      <c r="N19" s="14" t="n"/>
+      <c r="O19" s="14" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+      <c r="N20" s="14" t="n"/>
+      <c r="O20" s="14" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="14" t="n"/>
+      <c r="M21" s="14" t="n"/>
+      <c r="N21" s="14" t="n"/>
+      <c r="O21" s="14" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="14" t="n"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+      <c r="L22" s="14" t="n"/>
+      <c r="M22" s="14" t="n"/>
+      <c r="N22" s="14" t="n"/>
+      <c r="O22" s="14" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="14" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="14" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="14" t="n"/>
+      <c r="H23" s="14" t="n"/>
+      <c r="I23" s="14" t="n"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+      <c r="L23" s="14" t="n"/>
+      <c r="M23" s="14" t="n"/>
+      <c r="N23" s="14" t="n"/>
+      <c r="O23" s="14" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="14" t="n"/>
+      <c r="I24" s="14" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="14" t="n"/>
+      <c r="N24" s="14" t="n"/>
+      <c r="O24" s="14" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="14" t="n"/>
+      <c r="G25" s="14" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="14" t="n"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="14" t="n"/>
+      <c r="M25" s="14" t="n"/>
+      <c r="N25" s="14" t="n"/>
+      <c r="O25" s="14" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="14" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="14" t="n"/>
+      <c r="F26" s="14" t="n"/>
+      <c r="G26" s="14" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="14" t="n"/>
+      <c r="J26" s="14" t="n"/>
+      <c r="K26" s="14" t="n"/>
+      <c r="L26" s="14" t="n"/>
+      <c r="M26" s="14" t="n"/>
+      <c r="N26" s="14" t="n"/>
+      <c r="O26" s="14" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="14" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="14" t="n"/>
+      <c r="F27" s="14" t="n"/>
+      <c r="G27" s="14" t="n"/>
+      <c r="H27" s="14" t="n"/>
+      <c r="I27" s="14" t="n"/>
+      <c r="J27" s="14" t="n"/>
+      <c r="K27" s="14" t="n"/>
+      <c r="L27" s="14" t="n"/>
+      <c r="M27" s="14" t="n"/>
+      <c r="N27" s="14" t="n"/>
+      <c r="O27" s="14" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n"/>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="14" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="14" t="n"/>
+      <c r="F28" s="14" t="n"/>
+      <c r="G28" s="14" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="I28" s="14" t="n"/>
+      <c r="J28" s="14" t="n"/>
+      <c r="K28" s="14" t="n"/>
+      <c r="L28" s="14" t="n"/>
+      <c r="M28" s="14" t="n"/>
+      <c r="N28" s="14" t="n"/>
+      <c r="O28" s="14" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n"/>
+      <c r="B29" s="14" t="n"/>
+      <c r="C29" s="14" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="14" t="n"/>
+      <c r="G29" s="14" t="n"/>
+      <c r="H29" s="14" t="n"/>
+      <c r="I29" s="14" t="n"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+      <c r="L29" s="14" t="n"/>
+      <c r="M29" s="14" t="n"/>
+      <c r="N29" s="14" t="n"/>
+      <c r="O29" s="14" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n"/>
+      <c r="B30" s="14" t="n"/>
+      <c r="C30" s="14" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="14" t="n"/>
+      <c r="F30" s="14" t="n"/>
+      <c r="G30" s="14" t="n"/>
+      <c r="H30" s="14" t="n"/>
+      <c r="I30" s="14" t="n"/>
+      <c r="J30" s="14" t="n"/>
+      <c r="K30" s="14" t="n"/>
+      <c r="L30" s="14" t="n"/>
+      <c r="M30" s="14" t="n"/>
+      <c r="N30" s="14" t="n"/>
+      <c r="O30" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78848,7 +78305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -78994,7 +78451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -79191,7 +78648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
